--- a/Projects/PEPSICOUK/Tests/Data/external_targets.xlsx
+++ b/Projects/PEPSICOUK/Tests/Data/external_targets.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="external_targets" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="58">
   <si>
     <t xml:space="preserve">pk</t>
   </si>
@@ -161,6 +161,39 @@
   </si>
   <si>
     <t xml:space="preserve">{"KPI Parent": "Placement by shelf numbers", "Shelves From Bottom To Include (data)": "1,2"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"Group Name": "Pringles_FTT_Tubes"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"Target": 90, "Value 1": 189, "Value 2": "Fun times together Tubes", "Value 3": "", "Parameter 1": "brand_fk", "Parameter 2": "PDH Format", "Parameter 3": ""}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-04-01 00:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-04-03 09:38:27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Positioning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"Group Name": "Hula Hoops_LMP_Snacks"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"Target": 90, "Value 1": 138, "Value 2": "LMP Snacks", "Value 3": "", "Parameter 1": "brand_fk", "Parameter 2": "PDH Format", "Parameter 3": ""}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"Group Name": "DORITOS GROUP"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"Target": 0, "Value 1": 136, "Value 2": "", "Value 3": "", "Parameter 1": "brand_fk", "Parameter 2": "", "Parameter 3": ""}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"Group Name": "Walkers Crisps_Small MP PC"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"Target": 0, "Value 1": 199, "Value 2": 7, "Value 3": "SMP PC", "Parameter 1": "brand_fk", "Parameter 2": "sub_category_fk", "Parameter 3": "PDH Sub-segment"}</t>
   </si>
 </sst>
 </file>
@@ -262,21 +295,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J24" activeCellId="0" sqref="J24"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.51020408163265"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="113.795918367347"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="218.821428571429"/>
-    <col collapsed="false" hidden="false" max="8" min="6" style="0" width="17.6836734693878"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.6275510204082"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="112.581632653061"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="216.525510204082"/>
+    <col collapsed="false" hidden="false" max="8" min="6" style="0" width="17.4132653061224"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1118,6 +1150,122 @@
       </c>
       <c r="I29" s="0" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>319</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I30" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>319</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I31" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>316</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I32" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>61</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>316</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G33" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I33" s="0" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/PEPSICOUK/Tests/Data/external_targets.xlsx
+++ b/Projects/PEPSICOUK/Tests/Data/external_targets.xlsx
@@ -52,7 +52,7 @@
     <t xml:space="preserve">{"store_type": "ALL", "additional_attribute_1": "OT", "additional_attribute_2": "SAINSBURY", "additional_attribute_3": "ALL"}</t>
   </si>
   <si>
-    <t xml:space="preserve">{"Target": 0.755181510151491, "KPI Parent": 298, "numerator_type": "manufacturer_fk", "numerator_value": 59, "denominator_type": "sub_category_fk", "denominator_value": 8, "additional_filter_type_1": "", "additional_filter_value_1": ""}</t>
+    <t xml:space="preserve">{"Target": 0.755181510151491, "KPI Parent": 298, "numerator_type": "manufacturer_fk", "numerator_value": 2, "denominator_type": "sub_category_fk", "denominator_value": 8, "additional_filter_type_1": "", "additional_filter_value_1": ""}</t>
   </si>
   <si>
     <t xml:space="preserve">2019-03-28 00:00:00</t>
@@ -70,13 +70,13 @@
     <t xml:space="preserve">{"store_type": "CORE", "additional_attribute_1": "OT", "additional_attribute_2": "SAINSBURY", "additional_attribute_3": "ALL"}</t>
   </si>
   <si>
-    <t xml:space="preserve">{"Target": 0.912269376379746, "KPI Parent": 297, "numerator_type": "manufacturer_fk", "numerator_value": 59, "denominator_type": "PDH Sub-segment", "denominator_value": "Healthier Multipack", "additional_filter_type_1": "", "additional_filter_value_1": ""}</t>
+    <t xml:space="preserve">{"Target": 0.9, "KPI Parent": 297, "numerator_type": "manufacturer_fk", "numerator_value": 2, "denominator_type": "PDH Sub-segment", "denominator_value": "Healthier Multipack", "additional_filter_type_1": "", "additional_filter_value_1": ""}</t>
   </si>
   <si>
     <t xml:space="preserve">{"Target": 0.000190990172530622, "KPI Parent": 300, "numerator_type": "brand_fk", "numerator_value": 155, "denominator_type": "category_fk", "denominator_value": 2, "additional_filter_type_1": "", "additional_filter_value_1": ""}</t>
   </si>
   <si>
-    <t xml:space="preserve">{"Target": 0.000190990172530622, "KPI Parent": 299, "numerator_type": "sub_brand_name", "numerator_value": "EAT REAL HUMMUS LENTIL &amp; QUINOA CHIPS", "denominator_type": "category_fk", "denominator_value": 2, "additional_filter_type_1": "", "additional_filter_value_1": ""}</t>
+    <t xml:space="preserve">{"Target": 0.02, "KPI Parent": 299, "numerator_type": "sub_brand", "numerator_value": "EAT REAL HUMMUS LENTIL &amp; QUINOA CHIPS", "denominator_type": "category_fk", "denominator_value": 2, "additional_filter_type_1": "", "additional_filter_value_1": ""}</t>
   </si>
   <si>
     <t xml:space="preserve">{"Target": 0.00291161677950961, "KPI Parent": 288, "numerator_type": "product_fk", "numerator_value": 1515, "denominator_type": "category_fk", "denominator_value": 2, "additional_filter_type_1": "", "additional_filter_value_1": ""}</t>
@@ -85,13 +85,13 @@
     <t xml:space="preserve">{"store_type": "ALL", "additional_attribute_1": "TT", "additional_attribute_2": "Impulse", "additional_attribute_3": "Xtra Local"}</t>
   </si>
   <si>
-    <t xml:space="preserve">{"Target": 0.389976427180486, "KPI Parent": 298, "numerator_type": "manufacturer_fk", "numerator_value": 59, "denominator_type": "sub_category_fk", "denominator_value": 6, "additional_filter_type_1": "", "additional_filter_value_1": ""}</t>
+    <t xml:space="preserve">{"Target": 0.389976427180486, "KPI Parent": 298, "numerator_type": "manufacturer_fk", "numerator_value": 2, "denominator_type": "sub_category_fk", "denominator_value": 6, "additional_filter_type_1": "", "additional_filter_value_1": ""}</t>
   </si>
   <si>
     <t xml:space="preserve">{"store_type": "ALL", "additional_attribute_1": "TT", "additional_attribute_2": "Impulse", "additional_attribute_3": "BOOKER PREMIER"}</t>
   </si>
   <si>
-    <t xml:space="preserve">{"Target": 1, "KPI Parent": 297, "numerator_type": "manufacturer_fk", "numerator_value": 59, "denominator_type": "PDH Sub-segment", "denominator_value": "Healthier Multipack", "additional_filter_type_1": "", "additional_filter_value_1": ""}</t>
+    <t xml:space="preserve">{"Target": 1, "KPI Parent": 297, "numerator_type": "manufacturer_fk", "numerator_value": 2, "denominator_type": "PDH Sub-segment", "denominator_value": "Healthier Multipack", "additional_filter_type_1": "", "additional_filter_value_1": ""}</t>
   </si>
   <si>
     <t xml:space="preserve">{"store_type": "ALL", "additional_attribute_1": "ALL", "additional_attribute_2": "ALL", "additional_attribute_3": "ALL"}</t>
@@ -204,7 +204,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -226,13 +226,26 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9900"/>
+        <bgColor rgb="FFFFCC00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -269,12 +282,28 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -297,18 +326,19 @@
   </sheetPr>
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.51020408163265"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.6275510204082"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="112.581632653061"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="216.525510204082"/>
-    <col collapsed="false" hidden="false" max="8" min="6" style="0" width="17.4132653061224"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.3571428571429"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="111.367346938776"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="228.142857142857"/>
+    <col collapsed="false" hidden="false" max="8" min="6" style="0" width="17.1428571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -347,7 +377,7 @@
       <c r="B2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>295</v>
       </c>
       <c r="D2" s="0" t="s">
@@ -356,45 +386,45 @@
       <c r="E2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G2" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="I2" s="0" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+    <row r="3" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="n">
         <v>22</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="3" t="n">
         <v>296</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="G3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="I3" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -405,7 +435,7 @@
       <c r="B4" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>293</v>
       </c>
       <c r="D4" s="0" t="s">
@@ -414,13 +444,13 @@
       <c r="E4" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="I4" s="0" t="s">
@@ -434,22 +464,22 @@
       <c r="B5" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="1" t="n">
         <v>294</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="I5" s="0" t="s">
@@ -463,7 +493,7 @@
       <c r="B6" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="1" t="n">
         <v>287</v>
       </c>
       <c r="D6" s="0" t="s">
@@ -472,13 +502,13 @@
       <c r="E6" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="I6" s="0" t="s">
@@ -501,13 +531,13 @@
       <c r="E7" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="I7" s="0" t="s">
@@ -530,13 +560,13 @@
       <c r="E8" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="I8" s="0" t="s">
@@ -550,7 +580,7 @@
       <c r="B9" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9" s="1" t="n">
         <v>301</v>
       </c>
       <c r="D9" s="0" t="s">
@@ -559,45 +589,45 @@
       <c r="E9" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="I9" s="0" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
-        <v>29</v>
-      </c>
-      <c r="B10" s="0" t="n">
+    <row r="10" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B10" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10" s="1" t="n">
         <v>302</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="E10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="1" t="s">
+      <c r="G10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="0" t="s">
+      <c r="I10" s="1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -617,13 +647,13 @@
       <c r="E11" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G11" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" s="2" t="s">
         <v>30</v>
       </c>
       <c r="I11" s="0" t="s">
@@ -646,13 +676,13 @@
       <c r="E12" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G12" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" s="2" t="s">
         <v>30</v>
       </c>
       <c r="I12" s="0" t="s">
@@ -675,13 +705,13 @@
       <c r="E13" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G13" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" s="2" t="s">
         <v>30</v>
       </c>
       <c r="I13" s="0" t="s">
@@ -704,13 +734,13 @@
       <c r="E14" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G14" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" s="2" t="s">
         <v>30</v>
       </c>
       <c r="I14" s="0" t="s">
@@ -733,13 +763,13 @@
       <c r="E15" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G15" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" s="2" t="s">
         <v>30</v>
       </c>
       <c r="I15" s="0" t="s">
@@ -762,13 +792,13 @@
       <c r="E16" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G16" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H16" s="2" t="s">
         <v>30</v>
       </c>
       <c r="I16" s="0" t="s">
@@ -791,13 +821,13 @@
       <c r="E17" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G17" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H17" s="2" t="s">
         <v>30</v>
       </c>
       <c r="I17" s="0" t="s">
@@ -820,13 +850,13 @@
       <c r="E18" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G18" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H18" s="2" t="s">
         <v>30</v>
       </c>
       <c r="I18" s="0" t="s">
@@ -849,13 +879,13 @@
       <c r="E19" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G19" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H19" s="2" t="s">
         <v>30</v>
       </c>
       <c r="I19" s="0" t="s">
@@ -878,13 +908,13 @@
       <c r="E20" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G20" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H20" s="2" t="s">
         <v>30</v>
       </c>
       <c r="I20" s="0" t="s">
@@ -907,13 +937,13 @@
       <c r="E21" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G21" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="H21" s="2" t="s">
         <v>30</v>
       </c>
       <c r="I21" s="0" t="s">
@@ -936,13 +966,13 @@
       <c r="E22" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G22" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="H22" s="2" t="s">
         <v>30</v>
       </c>
       <c r="I22" s="0" t="s">
@@ -965,13 +995,13 @@
       <c r="E23" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G23" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="H23" s="2" t="s">
         <v>30</v>
       </c>
       <c r="I23" s="0" t="s">
@@ -994,13 +1024,13 @@
       <c r="E24" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G24" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="H24" s="2" t="s">
         <v>30</v>
       </c>
       <c r="I24" s="0" t="s">
@@ -1023,13 +1053,13 @@
       <c r="E25" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G25" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="H25" s="2" t="s">
         <v>30</v>
       </c>
       <c r="I25" s="0" t="s">
@@ -1052,13 +1082,13 @@
       <c r="E26" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G26" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="H26" s="2" t="s">
         <v>30</v>
       </c>
       <c r="I26" s="0" t="s">
@@ -1081,13 +1111,13 @@
       <c r="E27" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G27" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="H27" s="2" t="s">
         <v>30</v>
       </c>
       <c r="I27" s="0" t="s">
@@ -1110,13 +1140,13 @@
       <c r="E28" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G28" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="H28" s="2" t="s">
         <v>30</v>
       </c>
       <c r="I28" s="0" t="s">
@@ -1139,13 +1169,13 @@
       <c r="E29" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F29" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G29" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="H29" s="2" t="s">
         <v>30</v>
       </c>
       <c r="I29" s="0" t="s">
@@ -1159,7 +1189,7 @@
       <c r="B30" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="C30" s="0" t="n">
+      <c r="C30" s="1" t="n">
         <v>319</v>
       </c>
       <c r="D30" s="0" t="s">
@@ -1168,13 +1198,13 @@
       <c r="E30" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F30" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G30" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="H30" s="2" t="s">
         <v>50</v>
       </c>
       <c r="I30" s="0" t="s">
@@ -1188,7 +1218,7 @@
       <c r="B31" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="C31" s="0" t="n">
+      <c r="C31" s="1" t="n">
         <v>319</v>
       </c>
       <c r="D31" s="0" t="s">
@@ -1197,13 +1227,13 @@
       <c r="E31" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F31" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G31" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="H31" s="2" t="s">
         <v>50</v>
       </c>
       <c r="I31" s="0" t="s">
@@ -1217,7 +1247,7 @@
       <c r="B32" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="C32" s="0" t="n">
+      <c r="C32" s="1" t="n">
         <v>316</v>
       </c>
       <c r="D32" s="0" t="s">
@@ -1226,13 +1256,13 @@
       <c r="E32" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F32" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G32" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="H32" s="2" t="s">
         <v>50</v>
       </c>
       <c r="I32" s="0" t="s">
@@ -1246,7 +1276,7 @@
       <c r="B33" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="C33" s="0" t="n">
+      <c r="C33" s="1" t="n">
         <v>316</v>
       </c>
       <c r="D33" s="0" t="s">
@@ -1255,13 +1285,13 @@
       <c r="E33" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F33" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G33" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="H33" s="2" t="s">
         <v>50</v>
       </c>
       <c r="I33" s="0" t="s">
